--- a/mse-set_creation/kt2.xlsx
+++ b/mse-set_creation/kt2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D213E7DB-16BC-4A09-ACA9-D93F1E306676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C176670-D155-42E8-8806-98D220C825C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1035" windowWidth="21600" windowHeight="11385" tabRatio="748" firstSheet="4" activeTab="4" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" firstSheet="4" activeTab="6" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="840">
   <si>
     <t>Property</t>
   </si>
@@ -2743,6 +2743,18 @@
   </si>
   <si>
     <t>{ aua_visible("ua") }</t>
+  </si>
+  <si>
+    <t>{ wpn_stripe_top(1) }</t>
+  </si>
+  <si>
+    <t>{ wpn_stripe_top(2) }</t>
+  </si>
+  <si>
+    <t>{ wpn_stripe_top(3) }</t>
+  </si>
+  <si>
+    <t>{ wpn_stripe_top(4) }</t>
   </si>
 </sst>
 </file>
@@ -12950,7 +12962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A9D6F-35A4-4B3A-A101-0038A8519C06}">
   <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -19586,8 +19598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB00221E-B5AF-470D-804A-366DA6F86337}">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20362,13 +20374,13 @@
         <v>430</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>483</v>
+        <v>643</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>484</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>735</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -20385,13 +20397,13 @@
         <v>430</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>453</v>
+        <v>836</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>484</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>735</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -20408,13 +20420,13 @@
         <v>430</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>502</v>
+        <v>837</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>484</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>735</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -20431,13 +20443,13 @@
         <v>430</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>503</v>
+        <v>838</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>484</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>735</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -20454,13 +20466,13 @@
         <v>430</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>504</v>
+        <v>839</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>484</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>735</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">

--- a/mse-set_creation/kt2.xlsx
+++ b/mse-set_creation/kt2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2AD1B9-0455-437D-A665-2A044C9A1406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D71D8-C9A3-4787-BF8D-A7EAA4DEB1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="1" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11498" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11515" uniqueCount="1009">
   <si>
     <t>Property</t>
   </si>
@@ -3243,6 +3243,30 @@
   </si>
   <si>
     <t>enabled: { card.skill_scout == "yes" }</t>
+  </si>
+  <si>
+    <t>Card No.</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>card_number()</t>
+  </si>
+  <si>
+    <t>{ 2 * h - 30 }</t>
+  </si>
+  <si>
+    <t>left bottom</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(if card.leader == "yes" then 0 else 1) + card.number </t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -29540,13 +29564,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5159BD89-EDB9-4B78-8353-21D83A8DC9C0}">
-  <dimension ref="A1:Y170"/>
+  <dimension ref="A1:Y171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29655,48 +29679,63 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="11"/>
+        <v>1001</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="R3" s="10" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="Y4" s="10" t="s">
-        <v>149</v>
+      <c r="R4" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29704,16 +29743,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>123</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="Y5" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -29721,101 +29759,92 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>123</v>
+      <c r="Y6" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>69</v>
+      <c r="J7" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>153</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="H8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="K8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="Y8" s="10" t="s">
-        <v>737</v>
+        <v>122</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>69</v>
+        <v>154</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="Y9" s="10" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -29823,19 +29852,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>122</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>171</v>
+        <v>235</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>69</v>
@@ -29846,19 +29875,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>122</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>69</v>
@@ -29869,19 +29898,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>122</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>69</v>
@@ -29892,19 +29921,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>122</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R13" s="10" t="s">
         <v>69</v>
@@ -29912,60 +29941,71 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>518</v>
+        <v>247</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>868</v>
+        <v>230</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="Q15" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>69</v>
+        <v>185</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>17</v>
+        <v>868</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>908</v>
+        <v>869</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>122</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>909</v>
+        <v>1002</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>169</v>
+        <v>519</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -29973,103 +30013,106 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>938</v>
+        <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>936</v>
-      </c>
-      <c r="K17" s="11"/>
+        <v>908</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="K19" s="11"/>
-      <c r="Q19" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>971</v>
-      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>526</v>
+        <v>933</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>477</v>
+        <v>934</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="Q20" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>751</v>
+        <v>526</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="M21" s="11"/>
+        <v>528</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>512</v>
+      </c>
       <c r="Q21" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>753</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>195</v>
+        <v>751</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>123</v>
+        <v>752</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="Q22" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -30077,10 +30120,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>123</v>
@@ -30094,37 +30137,39 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>948</v>
+        <v>211</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="R24" s="10" t="s">
-        <v>69</v>
+        <v>212</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>231</v>
+        <v>948</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10" t="s">
-        <v>188</v>
+        <v>949</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="R25" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -30132,17 +30177,17 @@
         <v>10</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>123</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="10" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -30150,17 +30195,17 @@
         <v>10</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>123</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -30168,52 +30213,46 @@
         <v>10</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>123</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>567</v>
+        <v>10</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="K29" s="11"/>
-      <c r="Q29" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>705</v>
+      <c r="L29" s="10" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>550</v>
+      <c r="B30" t="s">
+        <v>567</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>558</v>
+        <v>372</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>123</v>
@@ -30223,21 +30262,21 @@
       </c>
       <c r="K30" s="11"/>
       <c r="Q30" s="10" t="s">
-        <v>551</v>
+        <v>704</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>552</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>186</v>
+        <v>550</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>367</v>
+        <v>558</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>123</v>
@@ -30245,25 +30284,32 @@
       <c r="J31" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="K31" s="11"/>
+      <c r="Q31" s="10" t="s">
+        <v>551</v>
+      </c>
       <c r="R31" s="10" t="s">
-        <v>69</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -30271,10 +30317,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>123</v>
@@ -30285,39 +30331,39 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -30325,10 +30371,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>123</v>
@@ -30342,10 +30388,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>123</v>
@@ -30356,39 +30402,39 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>498</v>
+        <v>367</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -30396,10 +30442,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>123</v>
@@ -30410,39 +30456,39 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -30450,10 +30496,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>123</v>
@@ -30467,10 +30513,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>123</v>
@@ -30481,39 +30527,39 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>496</v>
+        <v>367</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -30521,10 +30567,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>123</v>
@@ -30535,39 +30581,39 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -30575,10 +30621,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>123</v>
@@ -30592,10 +30638,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>123</v>
@@ -30606,39 +30652,39 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>499</v>
+        <v>367</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -30646,10 +30692,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>369</v>
+        <v>499</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>123</v>
@@ -30660,39 +30706,39 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R55" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -30700,10 +30746,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>123</v>
@@ -30717,10 +30763,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>123</v>
@@ -30731,39 +30777,39 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R59" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -30771,10 +30817,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>123</v>
@@ -30785,39 +30831,39 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R62" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -30825,10 +30871,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>123</v>
@@ -30842,10 +30888,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>123</v>
@@ -30856,39 +30902,39 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R66" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -30896,10 +30942,10 @@
         <v>6</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>123</v>
@@ -30910,39 +30956,39 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R69" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J70" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -30950,10 +30996,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>123</v>
@@ -30967,10 +31013,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>123</v>
@@ -30981,39 +31027,39 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R73" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R74" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -31021,10 +31067,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>123</v>
@@ -31035,39 +31081,39 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J76" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R76" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J77" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R77" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -31075,10 +31121,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>123</v>
@@ -31092,10 +31138,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>123</v>
@@ -31106,39 +31152,39 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J80" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R80" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J81" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R81" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -31146,10 +31192,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>123</v>
@@ -31160,39 +31206,39 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R83" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J84" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R84" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -31200,10 +31246,10 @@
         <v>6</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>123</v>
@@ -31217,10 +31263,10 @@
         <v>6</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>123</v>
@@ -31231,39 +31277,39 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R87" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J88" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R88" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -31271,10 +31317,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>123</v>
@@ -31285,39 +31331,39 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J90" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R90" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J91" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R91" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -31325,10 +31371,10 @@
         <v>6</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>123</v>
@@ -31342,10 +31388,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>123</v>
@@ -31356,39 +31402,39 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R94" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J95" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R95" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -31396,10 +31442,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>123</v>
@@ -31410,39 +31456,39 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J97" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R97" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R98" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -31450,10 +31496,10 @@
         <v>6</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>123</v>
@@ -31467,10 +31513,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>123</v>
@@ -31481,39 +31527,39 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>297</v>
+        <v>6</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J101" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R101" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R102" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -31521,10 +31567,10 @@
         <v>6</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>123</v>
@@ -31535,39 +31581,39 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R104" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J105" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R105" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -31575,10 +31621,10 @@
         <v>6</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>123</v>
@@ -31592,10 +31638,10 @@
         <v>6</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>123</v>
@@ -31606,39 +31652,39 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H108" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J108" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R108" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R109" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -31646,10 +31692,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>123</v>
@@ -31660,39 +31706,39 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J111" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R111" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J112" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R112" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -31700,10 +31746,10 @@
         <v>6</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>123</v>
@@ -31717,10 +31763,10 @@
         <v>6</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>123</v>
@@ -31731,39 +31777,39 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J115" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R115" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J116" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R116" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -31771,10 +31817,10 @@
         <v>6</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>123</v>
@@ -31785,39 +31831,39 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J118" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R118" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J119" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R119" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -31825,10 +31871,10 @@
         <v>6</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>123</v>
@@ -31842,10 +31888,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>123</v>
@@ -31856,39 +31902,39 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H122" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J122" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R122" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J123" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R123" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -31896,10 +31942,10 @@
         <v>6</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>123</v>
@@ -31910,39 +31956,39 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H125" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J125" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R125" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H126" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J126" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R126" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -31950,10 +31996,10 @@
         <v>6</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H127" s="11" t="s">
         <v>123</v>
@@ -31967,10 +32013,10 @@
         <v>6</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>123</v>
@@ -31981,39 +32027,39 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J129" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R129" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H130" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J130" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R130" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -32021,10 +32067,10 @@
         <v>6</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>123</v>
@@ -32035,39 +32081,39 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J132" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R132" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J133" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R133" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -32075,10 +32121,10 @@
         <v>6</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>123</v>
@@ -32092,10 +32138,10 @@
         <v>6</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>123</v>
@@ -32106,39 +32152,39 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J136" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R136" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J137" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R137" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -32146,10 +32192,10 @@
         <v>6</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H138" s="11" t="s">
         <v>123</v>
@@ -32160,39 +32206,39 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H139" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J139" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R139" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J140" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R140" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -32200,10 +32246,10 @@
         <v>6</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>123</v>
@@ -32217,10 +32263,10 @@
         <v>6</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H142" s="11" t="s">
         <v>123</v>
@@ -32231,39 +32277,39 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H143" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J143" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R143" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H144" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J144" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R144" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -32271,10 +32317,10 @@
         <v>6</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H145" s="11" t="s">
         <v>123</v>
@@ -32285,39 +32331,39 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H146" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J146" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R146" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H147" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J147" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R147" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -32325,10 +32371,10 @@
         <v>6</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H148" s="11" t="s">
         <v>123</v>
@@ -32342,10 +32388,10 @@
         <v>6</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H149" s="11" t="s">
         <v>123</v>
@@ -32356,39 +32402,39 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H150" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J150" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R150" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H151" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J151" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R151" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -32396,10 +32442,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>123</v>
@@ -32410,39 +32456,39 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H153" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J153" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R153" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H154" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J154" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R154" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -32450,10 +32496,10 @@
         <v>6</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H155" s="11" t="s">
         <v>123</v>
@@ -32467,10 +32513,10 @@
         <v>6</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H156" s="11" t="s">
         <v>123</v>
@@ -32481,39 +32527,39 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H157" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J157" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R157" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H158" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J158" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R158" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -32521,10 +32567,10 @@
         <v>6</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H159" s="11" t="s">
         <v>123</v>
@@ -32535,39 +32581,39 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H160" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J160" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R160" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H161" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J161" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R161" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -32575,10 +32621,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H162" s="11" t="s">
         <v>123</v>
@@ -32592,10 +32638,10 @@
         <v>6</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H163" s="11" t="s">
         <v>123</v>
@@ -32606,39 +32652,39 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H164" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J164" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R164" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H165" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J165" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R165" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -32646,10 +32692,10 @@
         <v>6</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H166" s="11" t="s">
         <v>123</v>
@@ -32660,39 +32706,39 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H167" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J167" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R167" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H168" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J168" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="R168" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -32700,10 +32746,10 @@
         <v>6</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="H169" s="11" t="s">
         <v>123</v>
@@ -32717,21 +32763,38 @@
         <v>6</v>
       </c>
       <c r="B170" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C171" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H170" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J170" s="11" t="s">
+      <c r="H171" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J171" s="11" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V4:V14">
-    <sortCondition ref="V4:V14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V5:V15">
+    <sortCondition ref="V5:V15"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32858,10 +32921,10 @@
   <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E168" sqref="E168"/>
+      <selection pane="bottomRight" activeCell="R169" sqref="R169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33502,7 +33565,7 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13" t="s">
@@ -33562,7 +33625,7 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U14" s="13"/>
       <c r="V14" s="13" t="s">
@@ -40537,7 +40600,39 @@
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C168" s="13"/>
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="13">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>20</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F168">
+        <v>20</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+      <c r="N168" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O168" t="s">
+        <v>480</v>
+      </c>
+      <c r="P168">
+        <v>8</v>
+      </c>
+      <c r="R168" t="s">
+        <v>481</v>
+      </c>
+      <c r="S168" t="s">
+        <v>1006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mse-set_creation/kt2.xlsx
+++ b/mse-set_creation/kt2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D71D8-C9A3-4787-BF8D-A7EAA4DEB1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AD401-BC76-408B-87A6-0B35C3521ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="1" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="5" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Ref" sheetId="1" r:id="rId1"/>
@@ -29566,7 +29566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5159BD89-EDB9-4B78-8353-21D83A8DC9C0}">
   <dimension ref="A1:Y171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -40648,10 +40648,10 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42677,11 +42677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E497FF-E3CA-4929-BDCB-B0D40BBEB1E5}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44884,7 +44884,7 @@
         <v>741</v>
       </c>
       <c r="M54" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>439</v>

--- a/mse-set_creation/kt2.xlsx
+++ b/mse-set_creation/kt2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\M15-Magic-Pack-main\data\mse-set_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AD401-BC76-408B-87A6-0B35C3521ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43A1D1A-E41F-45B8-A540-DA131DE34ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="5" xr2:uid="{99BC69B6-EC6D-4401-A482-489E2ED58CBD}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11515" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11500" uniqueCount="1009">
   <si>
     <t>Property</t>
   </si>
@@ -3074,18 +3074,9 @@
     <t>notes_mask.png</t>
   </si>
   <si>
-    <t>{ h + 110 }</t>
-  </si>
-  <si>
     <t>rank_name</t>
   </si>
   <si>
-    <t>{ h + 114 }</t>
-  </si>
-  <si>
-    <t>{ h + 113 }</t>
-  </si>
-  <si>
     <t>specialism</t>
   </si>
   <si>
@@ -3267,6 +3258,15 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>card.number</t>
+  </si>
+  <si>
+    <t>number_ndc</t>
+  </si>
+  <si>
+    <t>{ fillable_font_colour() }</t>
   </si>
 </sst>
 </file>
@@ -27522,7 +27522,7 @@
         <v>153</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>220</v>
@@ -27671,7 +27671,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>168</v>
@@ -27820,7 +27820,7 @@
         <v>156</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>124</v>
@@ -27969,7 +27969,7 @@
         <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>169</v>
@@ -28115,7 +28115,7 @@
         <v>222</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>170</v>
@@ -28261,7 +28261,7 @@
         <v>156</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>171</v>
@@ -28404,7 +28404,7 @@
         <v>158</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>245</v>
@@ -28478,7 +28478,7 @@
         <v>159</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>246</v>
@@ -28492,7 +28492,7 @@
         <v>506</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>246</v>
@@ -28885,16 +28885,16 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C2" t="s">
         <v>950</v>
       </c>
-      <c r="B2" t="s">
-        <v>957</v>
-      </c>
-      <c r="C2" t="s">
-        <v>953</v>
-      </c>
       <c r="D2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E2" t="s">
         <v>492</v>
@@ -28959,16 +28959,16 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C3" t="s">
         <v>951</v>
       </c>
-      <c r="B3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C3" t="s">
-        <v>954</v>
-      </c>
       <c r="D3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E3" t="s">
         <v>505</v>
@@ -29033,64 +29033,64 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="H4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="L4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="N4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="P4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="Q4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="R4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="S4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="T4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="U4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="V4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="W4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="X4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -29567,10 +29567,10 @@
   <dimension ref="A1:Y171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29685,7 +29685,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>123</v>
@@ -29696,16 +29696,16 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="10" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29996,7 +29996,7 @@
         <v>122</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>519</v>
@@ -30070,7 +30070,7 @@
         <v>168</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -30160,10 +30160,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -32924,7 +32924,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R169" sqref="R169"/>
+      <selection pane="bottomRight" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40206,7 +40206,7 @@
         <v>225</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F157" s="13">
         <v>25</v>
@@ -40332,7 +40332,7 @@
       <c r="Q159" s="13"/>
       <c r="R159" s="13"/>
       <c r="S159" s="13" t="s">
-        <v>451</v>
+        <v>1008</v>
       </c>
       <c r="T159" s="13"/>
       <c r="U159" s="13"/>
@@ -40344,13 +40344,13 @@
         <v>933</v>
       </c>
       <c r="C160" s="13">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D160" s="13">
         <v>100</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F160" s="13">
         <v>25</v>
@@ -40371,7 +40371,7 @@
         <v>12</v>
       </c>
       <c r="S160" s="13" t="s">
-        <v>451</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
@@ -40385,7 +40385,7 @@
         <v>867</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F161" s="13">
         <v>25</v>
@@ -40411,7 +40411,7 @@
       <c r="Q161" s="13"/>
       <c r="R161" s="13"/>
       <c r="S161" s="13" t="s">
-        <v>451</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
@@ -40425,7 +40425,7 @@
         <v>867</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F162" s="13">
         <v>25</v>
@@ -40451,12 +40451,12 @@
       <c r="Q162" s="13"/>
       <c r="R162" s="13"/>
       <c r="S162" s="13" t="s">
-        <v>451</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C163" s="13">
         <v>260</v>
@@ -40465,7 +40465,7 @@
         <v>140</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F163" s="13">
         <v>25</v>
@@ -40496,7 +40496,7 @@
         <v>35</v>
       </c>
       <c r="E164" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F164">
         <f>D164</f>
@@ -40509,7 +40509,7 @@
         <v>11</v>
       </c>
       <c r="Y164" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
@@ -40525,7 +40525,7 @@
         <v>27</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F165">
         <f>ROUND(D165/3*4,0)</f>
@@ -40538,7 +40538,7 @@
         <v>11</v>
       </c>
       <c r="Y165" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
@@ -40554,7 +40554,7 @@
         <v>35</v>
       </c>
       <c r="E166" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F166">
         <f>D166</f>
@@ -40567,7 +40567,7 @@
         <v>11</v>
       </c>
       <c r="Y166" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
@@ -40583,7 +40583,7 @@
         <v>29</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F167">
         <f>ROUND(D167/0.8125,0)</f>
@@ -40596,7 +40596,7 @@
         <v>11</v>
       </c>
       <c r="Y167" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
@@ -40607,10 +40607,10 @@
         <v>10</v>
       </c>
       <c r="D168">
-        <v>20</v>
-      </c>
-      <c r="E168" s="13" t="s">
-        <v>1004</v>
+        <v>30</v>
+      </c>
+      <c r="E168" s="13">
+        <v>30</v>
       </c>
       <c r="F168">
         <v>20</v>
@@ -40619,19 +40619,22 @@
         <v>10</v>
       </c>
       <c r="N168" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="O168" t="s">
         <v>480</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>439</v>
       </c>
       <c r="R168" t="s">
         <v>481</v>
       </c>
       <c r="S168" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -40645,13 +40648,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E89001-7E00-414F-9148-580A680E8745}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42150,7 +42153,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>123</v>
@@ -42165,7 +42168,7 @@
         <v>123</v>
       </c>
       <c r="G65" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -42401,7 +42404,7 @@
         <v>123</v>
       </c>
       <c r="I75" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -42432,7 +42435,7 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>123</v>
@@ -42484,7 +42487,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>123</v>
@@ -42499,7 +42502,7 @@
         <v>123</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -42507,7 +42510,7 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>123</v>
@@ -42525,12 +42528,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>123</v>
@@ -42548,12 +42551,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>123</v>
@@ -42571,12 +42574,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>123</v>
@@ -42594,12 +42597,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>123</v>
@@ -42617,12 +42620,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>123</v>
@@ -42640,12 +42643,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>123</v>
@@ -42661,6 +42664,29 @@
       </c>
       <c r="G86" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -42675,13 +42701,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E497FF-E3CA-4929-BDCB-B0D40BBEB1E5}">
-  <dimension ref="A1:AD81"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44830,7 +44856,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>726</v>
@@ -44848,7 +44874,7 @@
         <v>726</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
@@ -44919,7 +44945,7 @@
         <v>225</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F55" s="13">
         <v>25</v>
@@ -44962,7 +44988,7 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13">
@@ -44972,7 +44998,7 @@
         <v>225</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F56" s="13">
         <v>25</v>
@@ -45016,7 +45042,7 @@
         <v>225</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F57" s="13">
         <v>25</v>
@@ -45059,7 +45085,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13">
@@ -45113,7 +45139,7 @@
         <v>225</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F59" s="13">
         <v>25</v>
@@ -45156,7 +45182,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C60" s="13">
         <v>25</v>
@@ -45165,7 +45191,7 @@
         <v>867</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F60" s="13">
         <v>25</v>
@@ -45186,7 +45212,7 @@
         <v>225</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F61" s="13">
         <v>25</v>
@@ -45229,7 +45255,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C62" s="13">
         <v>25</v>
@@ -45238,7 +45264,7 @@
         <v>867</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F62" s="13">
         <v>25</v>
@@ -45259,7 +45285,7 @@
         <v>225</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F63" s="13">
         <v>25</v>
@@ -45312,7 +45338,7 @@
         <v>733</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F64" s="13">
         <v>70</v>
@@ -45356,7 +45382,7 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C65" s="13">
         <v>25</v>
@@ -45365,7 +45391,7 @@
         <v>867</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F65" s="13">
         <v>75</v>
@@ -45432,7 +45458,7 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13">
@@ -45442,7 +45468,7 @@
         <v>70</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F67" s="13">
         <v>56</v>
@@ -45453,7 +45479,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="10" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
@@ -45478,7 +45504,7 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13">
@@ -45488,7 +45514,7 @@
         <v>70</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F68" s="13">
         <v>56</v>
@@ -45534,7 +45560,7 @@
         <v>100</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F69" s="13">
         <v>25</v>
@@ -45577,17 +45603,17 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="13">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D70" s="13">
         <v>100</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F70" s="13">
         <v>25</v>
@@ -45616,7 +45642,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13">
@@ -45682,7 +45708,7 @@
         <v>100</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F72" s="13">
         <f>D72*3/4</f>
@@ -45731,7 +45757,7 @@
         <v>140</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F73" s="13">
         <v>25</v>
@@ -45773,411 +45799,39 @@
       <c r="AD73" s="13"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>398</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="13">
-        <f>C76-(D76/2)-4</f>
-        <v>333</v>
-      </c>
-      <c r="D74" s="13">
-        <f>D76</f>
-        <v>64</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="F74" s="13">
-        <f>(ROUND(D74*0.866,0))</f>
-        <v>55</v>
-      </c>
-      <c r="G74" s="10">
-        <v>8</v>
-      </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="13"/>
-      <c r="AD74" s="13"/>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>400</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="13">
-        <f>C74+4</f>
-        <v>337</v>
-      </c>
-      <c r="D75" s="13">
-        <f>D74-8</f>
-        <v>56</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="F75" s="13">
-        <f t="shared" ref="F75:F81" si="0">(ROUND(D75*0.866,0))</f>
-        <v>48</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="13"/>
-      <c r="AD75" s="13"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>401</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="13">
-        <f>C78-(D78/2)-4</f>
-        <v>369</v>
-      </c>
-      <c r="D76" s="13">
-        <f>D78</f>
-        <v>64</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="F76" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G76" s="10">
-        <v>8</v>
-      </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="13"/>
-      <c r="AC76" s="13"/>
-      <c r="AD76" s="13"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>402</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="13">
-        <f>C76+4</f>
-        <v>373</v>
-      </c>
-      <c r="D77" s="13">
-        <f>D76-8</f>
-        <v>56</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="F77" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G77" s="10">
-        <v>9</v>
-      </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="13"/>
-      <c r="AD77" s="13"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>403</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="13">
-        <f>C80-(D80/2)-4</f>
-        <v>405</v>
-      </c>
-      <c r="D78" s="13">
-        <f>D80</f>
-        <v>64</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="F78" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G78" s="10">
-        <v>8</v>
-      </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="13"/>
-      <c r="AD78" s="13"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>404</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="13">
-        <f>C78+4</f>
-        <v>409</v>
-      </c>
-      <c r="D79" s="13">
-        <f>D78-8</f>
-        <v>56</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="F79" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G79" s="10">
-        <v>9</v>
-      </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="13"/>
-      <c r="AD79" s="13"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>405</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="13">
-        <f>525-20-D80</f>
-        <v>441</v>
-      </c>
-      <c r="D80" s="13">
-        <v>64</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="F80" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G80" s="10">
-        <v>8</v>
-      </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="13"/>
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="13"/>
-      <c r="AC80" s="13"/>
-      <c r="AD80" s="13"/>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>406</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="13">
-        <f>C80+4</f>
-        <v>445</v>
-      </c>
-      <c r="D81" s="13">
-        <f>D80-8</f>
-        <v>56</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="F81" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G81" s="10">
-        <v>9</v>
-      </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
-      <c r="AA81" s="13"/>
-      <c r="AB81" s="13"/>
-      <c r="AC81" s="13"/>
-      <c r="AD81" s="13"/>
+      <c r="A74" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>481</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
